--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H2">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I2">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J2">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>344.7127110020533</v>
+        <v>853.6416225850594</v>
       </c>
       <c r="R2">
-        <v>3102.41439901848</v>
+        <v>7682.774603265535</v>
       </c>
       <c r="S2">
-        <v>0.08816598549290919</v>
+        <v>0.1434427657285723</v>
       </c>
       <c r="T2">
-        <v>0.08816598549290917</v>
+        <v>0.1434427657285723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H3">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I3">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J3">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
-        <v>332.718530688206</v>
+        <v>728.6011524229077</v>
       </c>
       <c r="R3">
-        <v>2994.466776193854</v>
+        <v>6557.41037180617</v>
       </c>
       <c r="S3">
-        <v>0.08509827521185807</v>
+        <v>0.1224314298312616</v>
       </c>
       <c r="T3">
-        <v>0.08509827521185806</v>
+        <v>0.1224314298312615</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H4">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I4">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J4">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>67.33411492818398</v>
+        <v>217.0640409783512</v>
       </c>
       <c r="R4">
-        <v>606.0070343536559</v>
+        <v>1953.576368805161</v>
       </c>
       <c r="S4">
-        <v>0.01722181518250073</v>
+        <v>0.03647463473473302</v>
       </c>
       <c r="T4">
-        <v>0.01722181518250073</v>
+        <v>0.03647463473473301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.122774</v>
+        <v>24.35712233333334</v>
       </c>
       <c r="H5">
-        <v>33.368322</v>
+        <v>73.07136700000001</v>
       </c>
       <c r="I5">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="J5">
-        <v>0.2449652610853511</v>
+        <v>0.3750500562097488</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>213.003546864732</v>
+        <v>432.6519510338539</v>
       </c>
       <c r="R5">
-        <v>1917.031921782588</v>
+        <v>3893.867559304686</v>
       </c>
       <c r="S5">
-        <v>0.05447918519808311</v>
+        <v>0.07270122591518191</v>
       </c>
       <c r="T5">
-        <v>0.0544791851980831</v>
+        <v>0.0727012259151819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.662142</v>
       </c>
       <c r="I6">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J6">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>564.6893229452534</v>
+        <v>638.5795354130287</v>
       </c>
       <c r="R6">
-        <v>5082.20390650728</v>
+        <v>5747.215818717259</v>
       </c>
       <c r="S6">
-        <v>0.144428647583278</v>
+        <v>0.1073045318712589</v>
       </c>
       <c r="T6">
-        <v>0.144428647583278</v>
+        <v>0.1073045318712589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.662142</v>
       </c>
       <c r="I7">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J7">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
         <v>545.0411192540661</v>
@@ -883,10 +883,10 @@
         <v>4905.370073286595</v>
       </c>
       <c r="S7">
-        <v>0.1394032940459417</v>
+        <v>0.09158668405231089</v>
       </c>
       <c r="T7">
-        <v>0.1394032940459417</v>
+        <v>0.09158668405231087</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.662142</v>
       </c>
       <c r="I8">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J8">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>110.303027873224</v>
+        <v>162.3780410602207</v>
       </c>
       <c r="R8">
-        <v>992.727250859016</v>
+        <v>1461.402369541986</v>
       </c>
       <c r="S8">
-        <v>0.02821182638442565</v>
+        <v>0.02728540254718526</v>
       </c>
       <c r="T8">
-        <v>0.02821182638442565</v>
+        <v>0.02728540254718525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.662142</v>
       </c>
       <c r="I9">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302703</v>
       </c>
       <c r="J9">
-        <v>0.4012885600454987</v>
+        <v>0.2805618708302702</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>348.9306452156521</v>
+        <v>323.6518400427567</v>
       </c>
       <c r="R9">
-        <v>3140.375806940869</v>
+        <v>2912.86656038481</v>
       </c>
       <c r="S9">
-        <v>0.08924479203185336</v>
+        <v>0.05438525235951524</v>
       </c>
       <c r="T9">
-        <v>0.08924479203185334</v>
+        <v>0.05438525235951523</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H10">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I10">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J10">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>494.10019013012</v>
+        <v>782.1585057374399</v>
       </c>
       <c r="R10">
-        <v>4446.90171117108</v>
+        <v>7039.42655163696</v>
       </c>
       <c r="S10">
-        <v>0.1263743076616526</v>
+        <v>0.1314310084381181</v>
       </c>
       <c r="T10">
-        <v>0.1263743076616526</v>
+        <v>0.1314310084381181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H11">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I11">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J11">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>476.908115151801</v>
+        <v>667.5888025842994</v>
       </c>
       <c r="R11">
-        <v>4292.173036366209</v>
+        <v>6008.299223258694</v>
       </c>
       <c r="S11">
-        <v>0.121977149724757</v>
+        <v>0.1121791413147452</v>
       </c>
       <c r="T11">
-        <v>0.121977149724757</v>
+        <v>0.1121791413147452</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H12">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I12">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J12">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>96.51456974576399</v>
+        <v>198.8873099074318</v>
       </c>
       <c r="R12">
-        <v>868.6311277118759</v>
+        <v>1789.985789166886</v>
       </c>
       <c r="S12">
-        <v>0.02468519983299575</v>
+        <v>0.03342028439879054</v>
       </c>
       <c r="T12">
-        <v>0.02468519983299575</v>
+        <v>0.03342028439879052</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.943029</v>
+        <v>22.31748066666667</v>
       </c>
       <c r="H13">
-        <v>47.829087</v>
+        <v>66.952442</v>
       </c>
       <c r="I13">
-        <v>0.3511253812651703</v>
+        <v>0.3436437303202491</v>
       </c>
       <c r="J13">
-        <v>0.3511253812651703</v>
+        <v>0.343643730320249</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N13">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q13">
-        <v>305.3124809303221</v>
+        <v>396.4220986557011</v>
       </c>
       <c r="R13">
-        <v>2747.812328372898</v>
+        <v>3567.798887901311</v>
       </c>
       <c r="S13">
-        <v>0.07808872404576502</v>
+        <v>0.06661329616859521</v>
       </c>
       <c r="T13">
-        <v>0.07808872404576499</v>
+        <v>0.06661329616859518</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H14">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I14">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J14">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N14">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O14">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P14">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q14">
-        <v>3.687960664515555</v>
+        <v>1.694178812186556</v>
       </c>
       <c r="R14">
-        <v>33.19164598064</v>
+        <v>15.247609309679</v>
       </c>
       <c r="S14">
-        <v>0.0009432570255413685</v>
+        <v>0.000284683511240775</v>
       </c>
       <c r="T14">
-        <v>0.0009432570255413681</v>
+        <v>0.0002846835112407748</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H15">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I15">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J15">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q15">
-        <v>3.559639126641333</v>
+        <v>1.446017394549667</v>
       </c>
       <c r="R15">
-        <v>32.036752139772</v>
+        <v>13.014156550947</v>
       </c>
       <c r="S15">
-        <v>0.0009104366667743281</v>
+        <v>0.0002429833889047044</v>
       </c>
       <c r="T15">
-        <v>0.000910436666774328</v>
+        <v>0.0002429833889047043</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H16">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I16">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J16">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N16">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O16">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P16">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q16">
-        <v>0.7203841323786665</v>
+        <v>0.4307958859825556</v>
       </c>
       <c r="R16">
-        <v>6.483457191407998</v>
+        <v>3.877162973843</v>
       </c>
       <c r="S16">
-        <v>0.0001842501739491735</v>
+        <v>7.238933964196561E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001842501739491734</v>
+        <v>7.238933964196558E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1189986666666667</v>
+        <v>0.04834033333333334</v>
       </c>
       <c r="H17">
-        <v>0.356996</v>
+        <v>0.145021</v>
       </c>
       <c r="I17">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318391</v>
       </c>
       <c r="J17">
-        <v>0.002620797603979786</v>
+        <v>0.0007443426397318388</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N17">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q17">
-        <v>2.278850408376</v>
+        <v>0.8586621705172223</v>
       </c>
       <c r="R17">
-        <v>20.509653675384</v>
+        <v>7.727959534655001</v>
       </c>
       <c r="S17">
-        <v>0.0005828537377149165</v>
+        <v>0.0001442863999443941</v>
       </c>
       <c r="T17">
-        <v>0.0005828537377149163</v>
+        <v>0.000144286399944394</v>
       </c>
     </row>
   </sheetData>
